--- a/docs/public/help/help_linked_docs/accessioning_template_extended_with_metadata.xlsx
+++ b/docs/public/help/help_linked_docs/accessioning_template_extended_with_metadata.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drioux/Documents/help_linked_docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drioux/CGAP/cgap-portal/docs/public/help/help_linked_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D264CBAC-5E5D-0748-882A-1DBE91A7C6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D4A935-C07C-1244-B673-8C0FAB994C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3140" windowWidth="28800" windowHeight="14860" xr2:uid="{FB0E66EA-1423-4875-8AFB-50DDC911B1EB}"/>
+    <workbookView xWindow="200" yWindow="1620" windowWidth="28800" windowHeight="14860" xr2:uid="{FB0E66EA-1423-4875-8AFB-50DDC911B1EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Accession data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,20 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="90">
-  <si>
-    <t>Other ID</t>
-  </si>
-  <si>
-    <t>place holder for other pt IDs</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="94">
   <si>
     <t>dd/mm/yyyy</t>
   </si>
   <si>
-    <t>M or F</t>
-  </si>
-  <si>
     <t xml:space="preserve">proband or relation to proband </t>
   </si>
   <si>
@@ -213,9 +204,6 @@
     <t>YYYY</t>
   </si>
   <si>
-    <t>WGS, WES, etc.</t>
-  </si>
-  <si>
     <t>WGS</t>
   </si>
   <si>
@@ -273,28 +261,52 @@
     <t>Unique Analysis ID*</t>
   </si>
   <si>
-    <t>Pt ID generated manually or by barcode-</t>
-  </si>
-  <si>
-    <t>family ID generated manually or by barcode</t>
-  </si>
-  <si>
-    <t>456-55432</t>
-  </si>
-  <si>
-    <t>789-55432</t>
-  </si>
-  <si>
-    <t>123-55432</t>
-  </si>
-  <si>
     <t>Files</t>
   </si>
   <si>
     <t>Family ID</t>
   </si>
   <si>
-    <t>Clinic Notes</t>
+    <t>M, F, U</t>
+  </si>
+  <si>
+    <t>ID for the analysis group</t>
+  </si>
+  <si>
+    <t>Pt ID generated manually or by barcode</t>
+  </si>
+  <si>
+    <t>Family ID generated manually or by barcode</t>
+  </si>
+  <si>
+    <t>ID for sample specific to this analysis</t>
+  </si>
+  <si>
+    <t>55432-3464467</t>
+  </si>
+  <si>
+    <t>55432-3464468</t>
+  </si>
+  <si>
+    <t>55432-3464469</t>
+  </si>
+  <si>
+    <t>Age Units</t>
+  </si>
+  <si>
+    <t>WGS, WES</t>
+  </si>
+  <si>
+    <t>Case Files</t>
+  </si>
+  <si>
+    <t>Genome Build</t>
+  </si>
+  <si>
+    <t>hg19, hg38</t>
+  </si>
+  <si>
+    <t>Comma-separated</t>
   </si>
 </sst>
 </file>
@@ -372,7 +384,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -508,19 +520,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -579,15 +578,6 @@
     </border>
     <border>
       <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -647,11 +637,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -710,12 +744,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -728,10 +756,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -741,101 +765,116 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1157,87 +1196,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23985C4D-01B8-468F-8F7A-3E2DDE3ABF1C}">
-  <dimension ref="A1:CC6"/>
+  <dimension ref="A1:CB6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection sqref="A1:AP3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="5"/>
-    <col min="2" max="2" width="12.6640625" style="8" customWidth="1"/>
-    <col min="3" max="10" width="12.6640625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" style="7" customWidth="1"/>
-    <col min="12" max="19" width="16" style="8" customWidth="1"/>
-    <col min="20" max="20" width="14.5" style="5" customWidth="1"/>
-    <col min="21" max="22" width="15.5" style="5" customWidth="1"/>
-    <col min="23" max="23" width="14.33203125" style="5" customWidth="1"/>
-    <col min="24" max="24" width="16.5" style="5" customWidth="1"/>
-    <col min="25" max="25" width="12.6640625" style="7" customWidth="1"/>
-    <col min="26" max="35" width="16" style="8" customWidth="1"/>
-    <col min="36" max="37" width="14.5" style="5" customWidth="1"/>
-    <col min="38" max="38" width="15.5" style="5" customWidth="1"/>
-    <col min="39" max="39" width="14.33203125" style="5" customWidth="1"/>
-    <col min="40" max="40" width="14.33203125" style="6" customWidth="1"/>
-    <col min="41" max="41" width="12.6640625" style="7" customWidth="1"/>
-    <col min="42" max="77" width="16" style="8" customWidth="1"/>
-    <col min="78" max="78" width="14.5" style="5" customWidth="1"/>
-    <col min="79" max="79" width="15.5" style="5" customWidth="1"/>
-    <col min="80" max="80" width="14.33203125" style="5" customWidth="1"/>
-    <col min="81" max="81" width="16.5" style="5" customWidth="1"/>
-    <col min="82" max="16384" width="9.1640625" style="9"/>
+    <col min="1" max="1" width="18.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="8" customWidth="1"/>
+    <col min="4" max="9" width="12.6640625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="7" customWidth="1"/>
+    <col min="11" max="18" width="16" style="8" customWidth="1"/>
+    <col min="19" max="19" width="14.5" style="5" customWidth="1"/>
+    <col min="20" max="21" width="15.5" style="5" customWidth="1"/>
+    <col min="22" max="22" width="14.33203125" style="5" customWidth="1"/>
+    <col min="23" max="23" width="16.5" style="5" customWidth="1"/>
+    <col min="24" max="24" width="12.6640625" style="7" customWidth="1"/>
+    <col min="25" max="34" width="16" style="8" customWidth="1"/>
+    <col min="35" max="36" width="14.5" style="5" customWidth="1"/>
+    <col min="37" max="37" width="15.5" style="5" customWidth="1"/>
+    <col min="38" max="38" width="14.33203125" style="5" customWidth="1"/>
+    <col min="39" max="39" width="14.33203125" style="6" customWidth="1"/>
+    <col min="40" max="40" width="15.83203125" style="5" customWidth="1"/>
+    <col min="41" max="41" width="16" style="8" customWidth="1"/>
+    <col min="42" max="42" width="16" style="66" customWidth="1"/>
+    <col min="43" max="76" width="16" style="8" customWidth="1"/>
+    <col min="77" max="77" width="14.5" style="5" customWidth="1"/>
+    <col min="78" max="78" width="15.5" style="5" customWidth="1"/>
+    <col min="79" max="79" width="14.33203125" style="5" customWidth="1"/>
+    <col min="80" max="80" width="16.5" style="5" customWidth="1"/>
+    <col min="81" max="16384" width="9.1640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74"/>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="75"/>
-      <c r="Z1" s="76" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="74"/>
-      <c r="AE1" s="74"/>
-      <c r="AF1" s="74"/>
-      <c r="AG1" s="74"/>
-      <c r="AH1" s="74"/>
-      <c r="AI1" s="74"/>
-      <c r="AJ1" s="74"/>
-      <c r="AK1" s="74"/>
-      <c r="AL1" s="74"/>
-      <c r="AM1" s="74"/>
-      <c r="AN1" s="74"/>
-      <c r="AO1" s="75"/>
-      <c r="AP1" s="22"/>
+    <row r="1" spans="1:80" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="74"/>
+      <c r="AP1" s="75"/>
       <c r="AQ1" s="22"/>
       <c r="AR1" s="22"/>
       <c r="AS1" s="22"/>
@@ -1272,137 +1314,138 @@
       <c r="BV1" s="22"/>
       <c r="BW1" s="22"/>
       <c r="BX1" s="22"/>
-      <c r="BY1" s="22"/>
+      <c r="BY1" s="23"/>
       <c r="BZ1" s="23"/>
       <c r="CA1" s="23"/>
       <c r="CB1" s="23"/>
-      <c r="CC1" s="23"/>
     </row>
-    <row r="2" spans="1:81" s="10" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:80" s="10" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="T2" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="U2" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="V2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="W2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y2" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="Z2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA2" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="AB2" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="K2" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="L2" s="14" t="s">
+      <c r="AC2" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD2" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ2" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK2" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="M2" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="U2" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="V2" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="W2" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="X2" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y2" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z2" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA2" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB2" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC2" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD2" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF2" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG2" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH2" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="AI2" s="20" t="s">
+      <c r="AL2" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="AJ2" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK2" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL2" s="20" t="s">
+      <c r="AM2" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN2" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="AM2" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN2" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO2" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP2" s="3"/>
+      <c r="AO2" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="AP2" s="78" t="s">
+        <v>91</v>
+      </c>
       <c r="AQ2" s="3"/>
       <c r="AR2" s="3"/>
       <c r="AS2" s="3"/>
@@ -1437,123 +1480,128 @@
       <c r="BV2" s="3"/>
       <c r="BW2" s="3"/>
       <c r="BX2" s="3"/>
-      <c r="BY2" s="3"/>
+      <c r="BY2" s="2"/>
       <c r="BZ2" s="2"/>
       <c r="CA2" s="2"/>
       <c r="CB2" s="2"/>
-      <c r="CC2" s="2"/>
     </row>
-    <row r="3" spans="1:81" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+    <row r="3" spans="1:80" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="30" t="s">
+      <c r="D3" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34" t="s">
+      <c r="J3" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="34" t="s">
+      <c r="K3" s="30"/>
+      <c r="L3" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q3" s="34" t="s">
+      <c r="U3" s="31"/>
+      <c r="V3" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="X3" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="R3" s="34" t="s">
+      <c r="Y3" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z3" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA3" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB3" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC3" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE3" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF3" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG3" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH3" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI3" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="T3" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="U3" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="X3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y3" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z3" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA3" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB3" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC3" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF3" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG3" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH3" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI3" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK3" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL3" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM3" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN3" s="68"/>
-      <c r="AO3" s="33"/>
-      <c r="AP3" s="11"/>
+      <c r="AK3" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL3" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM3" s="57"/>
+      <c r="AN3" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO3" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP3" s="82" t="s">
+        <v>92</v>
+      </c>
       <c r="AQ3" s="11"/>
       <c r="AR3" s="11"/>
       <c r="AS3" s="11"/>
@@ -1588,294 +1636,293 @@
       <c r="BV3" s="11"/>
       <c r="BW3" s="11"/>
       <c r="BX3" s="11"/>
-      <c r="BY3" s="11"/>
     </row>
-    <row r="4" spans="1:81" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="63">
+    <row r="4" spans="1:80" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="35">
+        <v>55432</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="54">
         <v>456</v>
       </c>
-      <c r="C4" s="39">
+      <c r="D4" s="35">
         <v>333</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="41">
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37">
         <v>1991</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="H4" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="38"/>
+      <c r="L4" s="39">
+        <v>43863</v>
+      </c>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38">
+        <v>11946744</v>
+      </c>
+      <c r="O4" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="39">
+        <v>43892</v>
+      </c>
+      <c r="R4" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U4" s="40"/>
+      <c r="V4" s="41">
+        <v>43895</v>
+      </c>
+      <c r="W4" s="41">
+        <v>43897</v>
+      </c>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="43">
+        <v>3464467</v>
+      </c>
+      <c r="Z4" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA4" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB4" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC4" s="44">
+        <v>44137</v>
+      </c>
+      <c r="AD4" s="43"/>
+      <c r="AE4" s="44">
+        <v>44137</v>
+      </c>
+      <c r="AF4" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG4" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH4" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI4" s="43"/>
+      <c r="AJ4" s="43"/>
+      <c r="AK4" s="43"/>
+      <c r="AL4" s="45"/>
+      <c r="AM4" s="58"/>
+      <c r="AN4" s="45"/>
+      <c r="AO4" s="79"/>
+      <c r="AP4" s="80"/>
+    </row>
+    <row r="5" spans="1:80" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
+        <v>55432</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="55">
+        <v>789</v>
+      </c>
+      <c r="D5" s="13">
+        <v>333</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="24">
+        <v>1961</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="J5" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="15"/>
+      <c r="L5" s="25">
+        <v>43863</v>
+      </c>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15">
+        <v>11946744</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="25">
+        <v>43892</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="S5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="T5" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="U5" s="18"/>
+      <c r="V5" s="26">
+        <v>43895</v>
+      </c>
+      <c r="W5" s="26">
+        <v>43897</v>
+      </c>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="1">
+        <v>3464468</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC5" s="21">
+        <v>44137</v>
+      </c>
+      <c r="AE5" s="21">
+        <v>44137</v>
+      </c>
+      <c r="AF5" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM5" s="59"/>
+      <c r="AN5" s="77"/>
+    </row>
+    <row r="6" spans="1:80" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="28">
+        <v>55432</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="53">
+        <v>123</v>
+      </c>
+      <c r="D6" s="28">
+        <v>333</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="46">
+        <v>1965</v>
+      </c>
+      <c r="H6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="42">
-        <v>55432</v>
-      </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="45">
+      <c r="I6" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="47">
         <v>43863</v>
       </c>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44">
+      <c r="M6" s="30"/>
+      <c r="N6" s="30">
         <v>11946744</v>
       </c>
-      <c r="P4" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" s="45">
+      <c r="O6" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="47">
         <v>43892</v>
       </c>
-      <c r="S4" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="T4" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="U4" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="V4" s="46"/>
-      <c r="W4" s="47">
+      <c r="R6" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="S6" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="T6" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="U6" s="31"/>
+      <c r="V6" s="48">
         <v>43895</v>
       </c>
-      <c r="X4" s="47">
+      <c r="W6" s="48">
         <v>43897</v>
       </c>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="49">
-        <v>3464467</v>
-      </c>
-      <c r="AA4" s="49" t="s">
+      <c r="X6" s="32"/>
+      <c r="Y6" s="33">
+        <v>3464469</v>
+      </c>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB6" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC6" s="50">
+        <v>44137</v>
+      </c>
+      <c r="AD6" s="49"/>
+      <c r="AE6" s="50">
+        <v>44137</v>
+      </c>
+      <c r="AF6" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG6" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="AB4" s="49" t="s">
+      <c r="AH6" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="AC4" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD4" s="50">
-        <v>44137</v>
-      </c>
-      <c r="AE4" s="49"/>
-      <c r="AF4" s="50">
-        <v>44137</v>
-      </c>
-      <c r="AG4" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH4" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI4" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ4" s="49"/>
-      <c r="AK4" s="49"/>
-      <c r="AL4" s="49"/>
-      <c r="AM4" s="51"/>
-      <c r="AN4" s="69"/>
-      <c r="AO4" s="60"/>
-    </row>
-    <row r="5" spans="1:81" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="64">
-        <v>789</v>
-      </c>
-      <c r="C5" s="13">
-        <v>333</v>
-      </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="24">
-        <v>1961</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="27">
-        <v>55432</v>
-      </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="25">
-        <v>43863</v>
-      </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15">
-        <v>11946744</v>
-      </c>
-      <c r="P5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q5" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="R5" s="25">
-        <v>43892</v>
-      </c>
-      <c r="S5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="T5" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="U5" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="V5" s="18"/>
-      <c r="W5" s="28">
-        <v>43895</v>
-      </c>
-      <c r="X5" s="28">
-        <v>43897</v>
-      </c>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="1">
-        <v>3464468</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD5" s="21">
-        <v>44137</v>
-      </c>
-      <c r="AF5" s="21">
-        <v>44137</v>
-      </c>
-      <c r="AG5" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN5" s="70"/>
-      <c r="AO5" s="52"/>
-    </row>
-    <row r="6" spans="1:81" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="62">
-        <v>123</v>
-      </c>
-      <c r="C6" s="30">
-        <v>333</v>
-      </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="54">
-        <v>1965</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="32">
-        <v>55432</v>
-      </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="55">
-        <v>43863</v>
-      </c>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34">
-        <v>11946744</v>
-      </c>
-      <c r="P6" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q6" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="R6" s="55">
-        <v>43892</v>
-      </c>
-      <c r="S6" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="T6" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="U6" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="V6" s="35"/>
-      <c r="W6" s="56">
-        <v>43895</v>
-      </c>
-      <c r="X6" s="56">
-        <v>43897</v>
-      </c>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="37">
-        <v>3464469</v>
-      </c>
-      <c r="AA6" s="57"/>
-      <c r="AB6" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC6" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD6" s="58">
-        <v>44137</v>
-      </c>
-      <c r="AE6" s="57"/>
-      <c r="AF6" s="58">
-        <v>44137</v>
-      </c>
-      <c r="AG6" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH6" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI6" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ6" s="59"/>
-      <c r="AK6" s="59"/>
-      <c r="AL6" s="59"/>
-      <c r="AM6" s="59"/>
-      <c r="AN6" s="71"/>
-      <c r="AO6" s="52"/>
+      <c r="AI6" s="51"/>
+      <c r="AJ6" s="51"/>
+      <c r="AK6" s="51"/>
+      <c r="AL6" s="51"/>
+      <c r="AM6" s="60"/>
+      <c r="AN6" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="Z1:AO1"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="Y1:AP1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/public/help/help_linked_docs/accessioning_template_extended_with_metadata.xlsx
+++ b/docs/public/help/help_linked_docs/accessioning_template_extended_with_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drioux/CGAP/cgap-portal/docs/public/help/help_linked_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D4A935-C07C-1244-B673-8C0FAB994C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D754EAE-BB66-0B45-AF09-8E5FAB7F8AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="1620" windowWidth="28800" windowHeight="14860" xr2:uid="{FB0E66EA-1423-4875-8AFB-50DDC911B1EB}"/>
+    <workbookView xWindow="0" yWindow="1620" windowWidth="28800" windowHeight="14860" xr2:uid="{FB0E66EA-1423-4875-8AFB-50DDC911B1EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Accession data" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="99">
   <si>
     <t>dd/mm/yyyy</t>
   </si>
@@ -216,9 +216,6 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Patient ID*</t>
-  </si>
-  <si>
     <t>Sex*</t>
   </si>
   <si>
@@ -307,6 +304,24 @@
   </si>
   <si>
     <t>Comma-separated</t>
+  </si>
+  <si>
+    <t>3464467_R1_L001.fastq.gz, 3464467_R2_L001.fastq.gz</t>
+  </si>
+  <si>
+    <t>hg19</t>
+  </si>
+  <si>
+    <t>BAM Sample ID</t>
+  </si>
+  <si>
+    <t>789-3464468</t>
+  </si>
+  <si>
+    <t>sample_3464468.bam.gz</t>
+  </si>
+  <si>
+    <t>Individual ID*</t>
   </si>
 </sst>
 </file>
@@ -384,7 +399,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -671,6 +686,19 @@
     <border>
       <left/>
       <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -821,21 +849,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -849,20 +862,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -875,6 +876,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1198,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23985C4D-01B8-468F-8F7A-3E2DDE3ABF1C}">
   <dimension ref="A1:CB6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:AP3"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AN7" sqref="AN7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1220,10 +1246,11 @@
     <col min="37" max="37" width="15.5" style="5" customWidth="1"/>
     <col min="38" max="38" width="14.33203125" style="5" customWidth="1"/>
     <col min="39" max="39" width="14.33203125" style="6" customWidth="1"/>
-    <col min="40" max="40" width="15.83203125" style="5" customWidth="1"/>
-    <col min="41" max="41" width="16" style="8" customWidth="1"/>
-    <col min="42" max="42" width="16" style="66" customWidth="1"/>
-    <col min="43" max="76" width="16" style="8" customWidth="1"/>
+    <col min="40" max="40" width="42.5" style="5" customWidth="1"/>
+    <col min="41" max="41" width="21.1640625" style="8" customWidth="1"/>
+    <col min="42" max="42" width="16" style="8" customWidth="1"/>
+    <col min="43" max="43" width="16" style="61" customWidth="1"/>
+    <col min="44" max="76" width="16" style="8" customWidth="1"/>
     <col min="77" max="77" width="14.5" style="5" customWidth="1"/>
     <col min="78" max="78" width="15.5" style="5" customWidth="1"/>
     <col min="79" max="79" width="14.33203125" style="5" customWidth="1"/>
@@ -1232,55 +1259,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:80" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="61" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="64" t="s">
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62"/>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="74"/>
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="75"/>
+      <c r="AC1" s="75"/>
+      <c r="AD1" s="75"/>
+      <c r="AE1" s="75"/>
+      <c r="AF1" s="75"/>
+      <c r="AG1" s="75"/>
+      <c r="AH1" s="75"/>
+      <c r="AI1" s="75"/>
+      <c r="AJ1" s="75"/>
+      <c r="AK1" s="75"/>
+      <c r="AL1" s="75"/>
+      <c r="AM1" s="75"/>
+      <c r="AN1" s="75"/>
+      <c r="AO1" s="75"/>
       <c r="AP1" s="75"/>
-      <c r="AQ1" s="22"/>
+      <c r="AQ1" s="76"/>
       <c r="AR1" s="22"/>
       <c r="AS1" s="22"/>
       <c r="AT1" s="22"/>
@@ -1321,43 +1348,43 @@
     </row>
     <row r="2" spans="1:80" s="10" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>62</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>57</v>
       </c>
       <c r="H2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="67" t="s">
-        <v>76</v>
+      <c r="J2" s="62" t="s">
+        <v>75</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L2" s="14" t="s">
         <v>40</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N2" s="14" t="s">
         <v>10</v>
@@ -1378,10 +1405,10 @@
         <v>55</v>
       </c>
       <c r="T2" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2" s="16" t="s">
         <v>72</v>
-      </c>
-      <c r="U2" s="16" t="s">
-        <v>73</v>
       </c>
       <c r="V2" s="16" t="s">
         <v>13</v>
@@ -1393,22 +1420,22 @@
         <v>60</v>
       </c>
       <c r="Y2" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z2" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AA2" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB2" s="20" t="s">
         <v>68</v>
-      </c>
-      <c r="AB2" s="20" t="s">
-        <v>69</v>
       </c>
       <c r="AC2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="AD2" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE2" s="20" t="s">
         <v>49</v>
@@ -1429,7 +1456,7 @@
         <v>54</v>
       </c>
       <c r="AK2" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AL2" s="20" t="s">
         <v>53</v>
@@ -1437,16 +1464,18 @@
       <c r="AM2" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="AN2" s="76" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO2" s="73" t="s">
+      <c r="AN2" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO2" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP2" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="AP2" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ2" s="3"/>
+      <c r="AQ2" s="69" t="s">
+        <v>95</v>
+      </c>
       <c r="AR2" s="3"/>
       <c r="AS2" s="3"/>
       <c r="AT2" s="3"/>
@@ -1487,16 +1516,16 @@
     </row>
     <row r="3" spans="1:80" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="53" t="s">
+      <c r="D3" s="28" t="s">
         <v>82</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>83</v>
       </c>
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
@@ -1504,12 +1533,12 @@
         <v>58</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="68" t="s">
+      <c r="J3" s="63" t="s">
         <v>2</v>
       </c>
       <c r="K3" s="30"/>
@@ -1560,7 +1589,7 @@
         <v>46</v>
       </c>
       <c r="AB3" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AC3" s="33" t="s">
         <v>0</v>
@@ -1594,15 +1623,15 @@
       </c>
       <c r="AM3" s="57"/>
       <c r="AN3" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO3" s="81" t="s">
-        <v>93</v>
-      </c>
-      <c r="AP3" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="AQ3" s="11"/>
+      <c r="AO3" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP3" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ3" s="73"/>
       <c r="AR3" s="11"/>
       <c r="AS3" s="11"/>
       <c r="AT3" s="11"/>
@@ -1642,7 +1671,7 @@
         <v>55432</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="54">
         <v>456</v>
@@ -1661,7 +1690,7 @@
       <c r="I4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="69" t="s">
+      <c r="J4" s="64" t="s">
         <v>39</v>
       </c>
       <c r="K4" s="38"/>
@@ -1731,16 +1760,19 @@
       <c r="AK4" s="43"/>
       <c r="AL4" s="45"/>
       <c r="AM4" s="58"/>
-      <c r="AN4" s="45"/>
-      <c r="AO4" s="79"/>
-      <c r="AP4" s="80"/>
+      <c r="AN4" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO4" s="70"/>
+      <c r="AP4" s="70"/>
+      <c r="AQ4" s="71"/>
     </row>
     <row r="5" spans="1:80" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>55432</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="55">
         <v>789</v>
@@ -1759,7 +1791,7 @@
       <c r="I5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="70" t="s">
+      <c r="J5" s="65" t="s">
         <v>5</v>
       </c>
       <c r="K5" s="15"/>
@@ -1821,14 +1853,23 @@
         <v>36</v>
       </c>
       <c r="AM5" s="59"/>
-      <c r="AN5" s="77"/>
+      <c r="AN5" s="68"/>
+      <c r="AO5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP5" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ5" s="82" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="6" spans="1:80" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="28">
         <v>55432</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" s="53">
         <v>123</v>
@@ -1847,7 +1888,7 @@
       <c r="I6" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="68" t="s">
+      <c r="J6" s="63" t="s">
         <v>5</v>
       </c>
       <c r="K6" s="30"/>
@@ -1915,14 +1956,14 @@
       <c r="AK6" s="51"/>
       <c r="AL6" s="51"/>
       <c r="AM6" s="60"/>
-      <c r="AN6" s="77"/>
+      <c r="AN6" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="T1:X1"/>
     <mergeCell ref="K1:S1"/>
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="Y1:AP1"/>
+    <mergeCell ref="Y1:AQ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/public/help/help_linked_docs/accessioning_template_extended_with_metadata.xlsx
+++ b/docs/public/help/help_linked_docs/accessioning_template_extended_with_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drioux/CGAP/cgap-portal/docs/public/help/help_linked_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D754EAE-BB66-0B45-AF09-8E5FAB7F8AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03EFCB6-099C-1241-8817-9269125C9748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1620" windowWidth="28800" windowHeight="14860" xr2:uid="{FB0E66EA-1423-4875-8AFB-50DDC911B1EB}"/>
   </bookViews>
@@ -300,9 +300,6 @@
     <t>Genome Build</t>
   </si>
   <si>
-    <t>hg19, hg38</t>
-  </si>
-  <si>
     <t>Comma-separated</t>
   </si>
   <si>
@@ -318,10 +315,13 @@
     <t>789-3464468</t>
   </si>
   <si>
-    <t>sample_3464468.bam.gz</t>
-  </si>
-  <si>
     <t>Individual ID*</t>
+  </si>
+  <si>
+    <t>hg19, GRCh37, GRCh38</t>
+  </si>
+  <si>
+    <t>sample_3464468.vcf.gz</t>
   </si>
 </sst>
 </file>
@@ -876,30 +876,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1224,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23985C4D-01B8-468F-8F7A-3E2DDE3ABF1C}">
   <dimension ref="A1:CB6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AN7" sqref="AN7"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AN5" sqref="AN5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1248,7 +1248,7 @@
     <col min="39" max="39" width="14.33203125" style="6" customWidth="1"/>
     <col min="40" max="40" width="42.5" style="5" customWidth="1"/>
     <col min="41" max="41" width="21.1640625" style="8" customWidth="1"/>
-    <col min="42" max="42" width="16" style="8" customWidth="1"/>
+    <col min="42" max="42" width="19.6640625" style="8" customWidth="1"/>
     <col min="43" max="43" width="16" style="61" customWidth="1"/>
     <col min="44" max="76" width="16" style="8" customWidth="1"/>
     <col min="77" max="77" width="14.5" style="5" customWidth="1"/>
@@ -1259,55 +1259,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:80" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="74" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
-      <c r="W1" s="75"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="80" t="s">
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" s="75"/>
-      <c r="AA1" s="75"/>
-      <c r="AB1" s="75"/>
-      <c r="AC1" s="75"/>
-      <c r="AD1" s="75"/>
-      <c r="AE1" s="75"/>
-      <c r="AF1" s="75"/>
-      <c r="AG1" s="75"/>
-      <c r="AH1" s="75"/>
-      <c r="AI1" s="75"/>
-      <c r="AJ1" s="75"/>
-      <c r="AK1" s="75"/>
-      <c r="AL1" s="75"/>
-      <c r="AM1" s="75"/>
-      <c r="AN1" s="75"/>
-      <c r="AO1" s="75"/>
-      <c r="AP1" s="75"/>
-      <c r="AQ1" s="76"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="77"/>
+      <c r="AL1" s="77"/>
+      <c r="AM1" s="77"/>
+      <c r="AN1" s="77"/>
+      <c r="AO1" s="77"/>
+      <c r="AP1" s="77"/>
+      <c r="AQ1" s="78"/>
       <c r="AR1" s="22"/>
       <c r="AS1" s="22"/>
       <c r="AT1" s="22"/>
@@ -1354,7 +1354,7 @@
         <v>76</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>78</v>
@@ -1474,7 +1474,7 @@
         <v>90</v>
       </c>
       <c r="AQ2" s="69" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AR2" s="3"/>
       <c r="AS2" s="3"/>
@@ -1623,13 +1623,13 @@
       </c>
       <c r="AM3" s="57"/>
       <c r="AN3" s="51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AO3" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="AP3" s="81" t="s">
         <v>91</v>
+      </c>
+      <c r="AP3" s="74" t="s">
+        <v>97</v>
       </c>
       <c r="AQ3" s="73"/>
       <c r="AR3" s="11"/>
@@ -1761,7 +1761,7 @@
       <c r="AL4" s="45"/>
       <c r="AM4" s="58"/>
       <c r="AN4" s="43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AO4" s="70"/>
       <c r="AP4" s="70"/>
@@ -1855,13 +1855,13 @@
       <c r="AM5" s="59"/>
       <c r="AN5" s="68"/>
       <c r="AO5" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AP5" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ5" s="82" t="s">
-        <v>96</v>
+        <v>93</v>
+      </c>
+      <c r="AQ5" s="75" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:80" ht="15" x14ac:dyDescent="0.2">

--- a/docs/public/help/help_linked_docs/accessioning_template_extended_with_metadata.xlsx
+++ b/docs/public/help/help_linked_docs/accessioning_template_extended_with_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drioux/CGAP/cgap-portal/docs/public/help/help_linked_docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drioux/CGAP/cgap-portal-2/docs/public/help/help_linked_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03EFCB6-099C-1241-8817-9269125C9748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7FFDBD-57B2-504E-A4FD-C500019EDC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1620" windowWidth="28800" windowHeight="14860" xr2:uid="{FB0E66EA-1423-4875-8AFB-50DDC911B1EB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="102">
   <si>
     <t>dd/mm/yyyy</t>
   </si>
@@ -322,6 +322,15 @@
   </si>
   <si>
     <t>sample_3464468.vcf.gz</t>
+  </si>
+  <si>
+    <t>Variant Type</t>
+  </si>
+  <si>
+    <t>SNV, SV, CNV</t>
+  </si>
+  <si>
+    <t>SNV</t>
   </si>
 </sst>
 </file>
@@ -713,7 +722,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -752,10 +761,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -766,65 +771,30 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
@@ -846,7 +816,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -900,6 +870,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1222,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23985C4D-01B8-468F-8F7A-3E2DDE3ABF1C}">
-  <dimension ref="A1:CB6"/>
+  <dimension ref="A1:CC6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AN5" sqref="AN5"/>
+      <selection activeCell="AP6" sqref="AP6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1249,111 +1222,113 @@
     <col min="40" max="40" width="42.5" style="5" customWidth="1"/>
     <col min="41" max="41" width="21.1640625" style="8" customWidth="1"/>
     <col min="42" max="42" width="19.6640625" style="8" customWidth="1"/>
-    <col min="43" max="43" width="16" style="61" customWidth="1"/>
-    <col min="44" max="76" width="16" style="8" customWidth="1"/>
-    <col min="77" max="77" width="14.5" style="5" customWidth="1"/>
-    <col min="78" max="78" width="15.5" style="5" customWidth="1"/>
-    <col min="79" max="79" width="14.33203125" style="5" customWidth="1"/>
-    <col min="80" max="80" width="16.5" style="5" customWidth="1"/>
-    <col min="81" max="16384" width="9.1640625" style="9"/>
+    <col min="43" max="43" width="19.6640625" style="5" customWidth="1"/>
+    <col min="44" max="44" width="16" style="46" customWidth="1"/>
+    <col min="45" max="77" width="16" style="8" customWidth="1"/>
+    <col min="78" max="78" width="14.5" style="5" customWidth="1"/>
+    <col min="79" max="79" width="15.5" style="5" customWidth="1"/>
+    <col min="80" max="80" width="14.33203125" style="5" customWidth="1"/>
+    <col min="81" max="81" width="16.5" style="5" customWidth="1"/>
+    <col min="82" max="16384" width="9.1640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:81" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="76" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="82" t="s">
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="77"/>
-      <c r="AC1" s="77"/>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="77"/>
-      <c r="AF1" s="77"/>
-      <c r="AG1" s="77"/>
-      <c r="AH1" s="77"/>
-      <c r="AI1" s="77"/>
-      <c r="AJ1" s="77"/>
-      <c r="AK1" s="77"/>
-      <c r="AL1" s="77"/>
-      <c r="AM1" s="77"/>
-      <c r="AN1" s="77"/>
-      <c r="AO1" s="77"/>
-      <c r="AP1" s="77"/>
-      <c r="AQ1" s="78"/>
-      <c r="AR1" s="22"/>
-      <c r="AS1" s="22"/>
-      <c r="AT1" s="22"/>
-      <c r="AU1" s="22"/>
-      <c r="AV1" s="22"/>
-      <c r="AW1" s="22"/>
-      <c r="AX1" s="22"/>
-      <c r="AY1" s="22"/>
-      <c r="AZ1" s="22"/>
-      <c r="BA1" s="22"/>
-      <c r="BB1" s="22"/>
-      <c r="BC1" s="22"/>
-      <c r="BD1" s="22"/>
-      <c r="BE1" s="22"/>
-      <c r="BF1" s="22"/>
-      <c r="BG1" s="22"/>
-      <c r="BH1" s="22"/>
-      <c r="BI1" s="22"/>
-      <c r="BJ1" s="22"/>
-      <c r="BK1" s="22"/>
-      <c r="BL1" s="22"/>
-      <c r="BM1" s="22"/>
-      <c r="BN1" s="22"/>
-      <c r="BO1" s="22"/>
-      <c r="BP1" s="22"/>
-      <c r="BQ1" s="22"/>
-      <c r="BR1" s="22"/>
-      <c r="BS1" s="22"/>
-      <c r="BT1" s="22"/>
-      <c r="BU1" s="22"/>
-      <c r="BV1" s="22"/>
-      <c r="BW1" s="22"/>
-      <c r="BX1" s="22"/>
-      <c r="BY1" s="23"/>
-      <c r="BZ1" s="23"/>
-      <c r="CA1" s="23"/>
-      <c r="CB1" s="23"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="63"/>
+      <c r="AS1" s="20"/>
+      <c r="AT1" s="20"/>
+      <c r="AU1" s="20"/>
+      <c r="AV1" s="20"/>
+      <c r="AW1" s="20"/>
+      <c r="AX1" s="20"/>
+      <c r="AY1" s="20"/>
+      <c r="AZ1" s="20"/>
+      <c r="BA1" s="20"/>
+      <c r="BB1" s="20"/>
+      <c r="BC1" s="20"/>
+      <c r="BD1" s="20"/>
+      <c r="BE1" s="20"/>
+      <c r="BF1" s="20"/>
+      <c r="BG1" s="20"/>
+      <c r="BH1" s="20"/>
+      <c r="BI1" s="20"/>
+      <c r="BJ1" s="20"/>
+      <c r="BK1" s="20"/>
+      <c r="BL1" s="20"/>
+      <c r="BM1" s="20"/>
+      <c r="BN1" s="20"/>
+      <c r="BO1" s="20"/>
+      <c r="BP1" s="20"/>
+      <c r="BQ1" s="20"/>
+      <c r="BR1" s="20"/>
+      <c r="BS1" s="20"/>
+      <c r="BT1" s="20"/>
+      <c r="BU1" s="20"/>
+      <c r="BV1" s="20"/>
+      <c r="BW1" s="20"/>
+      <c r="BX1" s="20"/>
+      <c r="BY1" s="20"/>
+      <c r="BZ1" s="21"/>
+      <c r="CA1" s="21"/>
+      <c r="CB1" s="21"/>
+      <c r="CC1" s="21"/>
     </row>
-    <row r="2" spans="1:80" s="10" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:81" s="10" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="37" t="s">
         <v>96</v>
       </c>
       <c r="D2" s="12" t="s">
@@ -1374,7 +1349,7 @@
       <c r="I2" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="62" t="s">
+      <c r="J2" s="47" t="s">
         <v>75</v>
       </c>
       <c r="K2" s="14" t="s">
@@ -1419,64 +1394,66 @@
       <c r="X2" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="Y2" s="20" t="s">
+      <c r="Y2" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="Z2" s="20" t="s">
+      <c r="Z2" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" s="20" t="s">
+      <c r="AA2" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="20" t="s">
+      <c r="AB2" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="AC2" s="20" t="s">
+      <c r="AC2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="AD2" s="20" t="s">
+      <c r="AD2" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="AE2" s="20" t="s">
+      <c r="AE2" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="AF2" s="20" t="s">
+      <c r="AF2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="AG2" s="20" t="s">
+      <c r="AG2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="AH2" s="20" t="s">
+      <c r="AH2" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="AI2" s="20" t="s">
+      <c r="AI2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AJ2" s="20" t="s">
+      <c r="AJ2" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="AK2" s="20" t="s">
+      <c r="AK2" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="AL2" s="20" t="s">
+      <c r="AL2" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="AM2" s="56" t="s">
+      <c r="AM2" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="AN2" s="67" t="s">
+      <c r="AN2" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="AO2" s="66" t="s">
+      <c r="AO2" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="AP2" s="66" t="s">
+      <c r="AP2" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="AQ2" s="69" t="s">
+      <c r="AQ2" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR2" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="AR2" s="3"/>
       <c r="AS2" s="3"/>
       <c r="AT2" s="3"/>
       <c r="AU2" s="3"/>
@@ -1509,130 +1486,133 @@
       <c r="BV2" s="3"/>
       <c r="BW2" s="3"/>
       <c r="BX2" s="3"/>
-      <c r="BY2" s="2"/>
+      <c r="BY2" s="3"/>
       <c r="BZ2" s="2"/>
       <c r="CA2" s="2"/>
       <c r="CB2" s="2"/>
+      <c r="CC2" s="2"/>
     </row>
-    <row r="3" spans="1:80" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+    <row r="3" spans="1:81" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="28" t="s">
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30" t="s">
+      <c r="K3" s="24"/>
+      <c r="L3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="30" t="s">
+      <c r="M3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="30" t="s">
+      <c r="N3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="30" t="s">
+      <c r="O3" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="P3" s="30" t="s">
+      <c r="P3" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="Q3" s="30" t="s">
+      <c r="Q3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="30" t="s">
+      <c r="R3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="30" t="s">
+      <c r="S3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="31" t="s">
+      <c r="T3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31" t="s">
+      <c r="U3" s="24"/>
+      <c r="V3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="W3" s="31" t="s">
+      <c r="W3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="X3" s="32" t="s">
+      <c r="X3" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="Y3" s="33" t="s">
+      <c r="Y3" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="Z3" s="33" t="s">
+      <c r="Z3" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="AA3" s="33" t="s">
+      <c r="AA3" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="AB3" s="33" t="s">
+      <c r="AB3" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="AC3" s="33" t="s">
+      <c r="AC3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="AD3" s="33" t="s">
+      <c r="AD3" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="AE3" s="33" t="s">
+      <c r="AE3" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="AF3" s="33" t="s">
+      <c r="AF3" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="AG3" s="33" t="s">
+      <c r="AG3" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="AH3" s="33" t="s">
+      <c r="AH3" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="AI3" s="33" t="s">
+      <c r="AI3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="AJ3" s="33" t="s">
+      <c r="AJ3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="AK3" s="34" t="s">
+      <c r="AK3" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="AL3" s="33" t="s">
+      <c r="AL3" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AM3" s="57"/>
-      <c r="AN3" s="51" t="s">
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="AO3" s="72" t="s">
+      <c r="AO3" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="AP3" s="74" t="s">
+      <c r="AP3" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="AQ3" s="73"/>
-      <c r="AR3" s="11"/>
+      <c r="AQ3" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR3" s="58"/>
       <c r="AS3" s="11"/>
       <c r="AT3" s="11"/>
       <c r="AU3" s="11"/>
@@ -1665,124 +1645,126 @@
       <c r="BV3" s="11"/>
       <c r="BW3" s="11"/>
       <c r="BX3" s="11"/>
+      <c r="BY3" s="11"/>
     </row>
-    <row r="4" spans="1:80" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="35">
+    <row r="4" spans="1:81" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="27">
         <v>55432</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="54">
+      <c r="C4" s="39">
         <v>456</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="27">
         <v>333</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37">
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27">
         <v>1991</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="64" t="s">
+      <c r="J4" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="38"/>
-      <c r="L4" s="39">
+      <c r="K4" s="28"/>
+      <c r="L4" s="29">
         <v>43863</v>
       </c>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38">
+      <c r="M4" s="28"/>
+      <c r="N4" s="28">
         <v>11946744</v>
       </c>
-      <c r="O4" s="38" t="s">
+      <c r="O4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="38" t="s">
+      <c r="P4" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="39">
+      <c r="Q4" s="29">
         <v>43892</v>
       </c>
-      <c r="R4" s="38" t="s">
+      <c r="R4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="S4" s="38" t="s">
+      <c r="S4" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="T4" s="40" t="s">
+      <c r="T4" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="U4" s="40"/>
-      <c r="V4" s="41">
+      <c r="U4" s="28"/>
+      <c r="V4" s="29">
         <v>43895</v>
       </c>
-      <c r="W4" s="41">
+      <c r="W4" s="29">
         <v>43897</v>
       </c>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="43">
+      <c r="X4" s="30"/>
+      <c r="Y4" s="31">
         <v>3464467</v>
       </c>
-      <c r="Z4" s="43" t="s">
+      <c r="Z4" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="AA4" s="43" t="s">
+      <c r="AA4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="AB4" s="43" t="s">
+      <c r="AB4" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="AC4" s="44">
+      <c r="AC4" s="32">
         <v>44137</v>
       </c>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="44">
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="32">
         <v>44137</v>
       </c>
-      <c r="AF4" s="44" t="s">
+      <c r="AF4" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="AG4" s="43" t="s">
+      <c r="AG4" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="AH4" s="43" t="s">
+      <c r="AH4" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43"/>
-      <c r="AK4" s="43"/>
-      <c r="AL4" s="45"/>
-      <c r="AM4" s="58"/>
-      <c r="AN4" s="43" t="s">
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="43"/>
+      <c r="AN4" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="AO4" s="70"/>
-      <c r="AP4" s="70"/>
-      <c r="AQ4" s="71"/>
+      <c r="AO4" s="55"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="53"/>
+      <c r="AR4" s="56"/>
     </row>
-    <row r="5" spans="1:80" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:81" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>55432</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="55">
+      <c r="C5" s="40">
         <v>789</v>
       </c>
       <c r="D5" s="13">
         <v>333</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="24">
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13">
         <v>1961</v>
       </c>
       <c r="H5" s="13" t="s">
@@ -1791,11 +1773,11 @@
       <c r="I5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="65" t="s">
+      <c r="J5" s="50" t="s">
         <v>5</v>
       </c>
       <c r="K5" s="15"/>
-      <c r="L5" s="25">
+      <c r="L5" s="22">
         <v>43863</v>
       </c>
       <c r="M5" s="15"/>
@@ -1808,7 +1790,7 @@
       <c r="P5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="25">
+      <c r="Q5" s="22">
         <v>43892</v>
       </c>
       <c r="R5" s="15" t="s">
@@ -1817,17 +1799,16 @@
       <c r="S5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="T5" s="18" t="s">
+      <c r="T5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="U5" s="18"/>
-      <c r="V5" s="26">
+      <c r="U5" s="15"/>
+      <c r="V5" s="22">
         <v>43895</v>
       </c>
-      <c r="W5" s="26">
+      <c r="W5" s="22">
         <v>43897</v>
       </c>
-      <c r="X5" s="19"/>
       <c r="Y5" s="1">
         <v>3464468</v>
       </c>
@@ -1837,13 +1818,13 @@
       <c r="AB5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AC5" s="21">
+      <c r="AC5" s="19">
         <v>44137</v>
       </c>
-      <c r="AE5" s="21">
+      <c r="AE5" s="19">
         <v>44137</v>
       </c>
-      <c r="AF5" s="21" t="s">
+      <c r="AF5" s="19" t="s">
         <v>34</v>
       </c>
       <c r="AG5" s="1" t="s">
@@ -1852,118 +1833,121 @@
       <c r="AH5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM5" s="59"/>
-      <c r="AN5" s="68"/>
+      <c r="AM5" s="44"/>
+      <c r="AN5" s="53"/>
       <c r="AO5" s="1" t="s">
         <v>98</v>
       </c>
       <c r="AP5" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="AQ5" s="75" t="s">
+      <c r="AQ5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR5" s="60" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:80" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="28">
+    <row r="6" spans="1:81" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="23">
         <v>55432</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C6" s="38">
         <v>123</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="23">
         <v>333</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="46">
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23">
         <v>1965</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="63" t="s">
+      <c r="J6" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="47">
+      <c r="K6" s="24"/>
+      <c r="L6" s="33">
         <v>43863</v>
       </c>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30">
+      <c r="M6" s="24"/>
+      <c r="N6" s="24">
         <v>11946744</v>
       </c>
-      <c r="O6" s="30" t="s">
+      <c r="O6" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="30" t="s">
+      <c r="P6" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="47">
+      <c r="Q6" s="33">
         <v>43892</v>
       </c>
-      <c r="R6" s="30" t="s">
+      <c r="R6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="S6" s="30" t="s">
+      <c r="S6" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="T6" s="31" t="s">
+      <c r="T6" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="U6" s="31"/>
-      <c r="V6" s="48">
+      <c r="U6" s="24"/>
+      <c r="V6" s="33">
         <v>43895</v>
       </c>
-      <c r="W6" s="48">
+      <c r="W6" s="33">
         <v>43897</v>
       </c>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="33">
+      <c r="X6" s="25"/>
+      <c r="Y6" s="26">
         <v>3464469</v>
       </c>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="33" t="s">
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="AB6" s="33" t="s">
+      <c r="AB6" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="AC6" s="50">
+      <c r="AC6" s="35">
         <v>44137</v>
       </c>
-      <c r="AD6" s="49"/>
-      <c r="AE6" s="50">
+      <c r="AD6" s="34"/>
+      <c r="AE6" s="35">
         <v>44137</v>
       </c>
-      <c r="AF6" s="50" t="s">
+      <c r="AF6" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="AG6" s="33" t="s">
+      <c r="AG6" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="AH6" s="33" t="s">
+      <c r="AH6" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="AI6" s="51"/>
-      <c r="AJ6" s="51"/>
-      <c r="AK6" s="51"/>
-      <c r="AL6" s="51"/>
-      <c r="AM6" s="60"/>
-      <c r="AN6" s="68"/>
+      <c r="AI6" s="36"/>
+      <c r="AJ6" s="36"/>
+      <c r="AK6" s="36"/>
+      <c r="AL6" s="36"/>
+      <c r="AM6" s="45"/>
+      <c r="AN6" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="T1:X1"/>
     <mergeCell ref="K1:S1"/>
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="Y1:AQ1"/>
+    <mergeCell ref="Y1:AR1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/public/help/help_linked_docs/accessioning_template_extended_with_metadata.xlsx
+++ b/docs/public/help/help_linked_docs/accessioning_template_extended_with_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drioux/CGAP/cgap-portal-2/docs/public/help/help_linked_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7FFDBD-57B2-504E-A4FD-C500019EDC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C030D73-2513-4840-9D25-E17CDE5E3617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1620" windowWidth="28800" windowHeight="14860" xr2:uid="{FB0E66EA-1423-4875-8AFB-50DDC911B1EB}"/>
   </bookViews>
@@ -231,9 +231,6 @@
     <t>Specimen Type*</t>
   </si>
   <si>
-    <t>Workup Type*</t>
-  </si>
-  <si>
     <t>Research Protocol Name</t>
   </si>
   <si>
@@ -331,6 +328,9 @@
   </si>
   <si>
     <t>SNV</t>
+  </si>
+  <si>
+    <t>Test Requested*</t>
   </si>
 </sst>
 </file>
@@ -850,6 +850,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -870,9 +873,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1197,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23985C4D-01B8-468F-8F7A-3E2DDE3ABF1C}">
   <dimension ref="A1:CC6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AP6" sqref="AP6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1233,56 +1233,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:81" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="61" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="67" t="s">
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62"/>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="62"/>
-      <c r="AQ1" s="62"/>
-      <c r="AR1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="63"/>
+      <c r="AO1" s="63"/>
+      <c r="AP1" s="63"/>
+      <c r="AQ1" s="63"/>
+      <c r="AR1" s="64"/>
       <c r="AS1" s="20"/>
       <c r="AT1" s="20"/>
       <c r="AU1" s="20"/>
@@ -1326,19 +1326,19 @@
         <v>65</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>62</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>57</v>
@@ -1350,16 +1350,16 @@
         <v>64</v>
       </c>
       <c r="J2" s="47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L2" s="14" t="s">
         <v>40</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N2" s="14" t="s">
         <v>10</v>
@@ -1380,10 +1380,10 @@
         <v>55</v>
       </c>
       <c r="T2" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="U2" s="16" t="s">
         <v>71</v>
-      </c>
-      <c r="U2" s="16" t="s">
-        <v>72</v>
       </c>
       <c r="V2" s="16" t="s">
         <v>13</v>
@@ -1404,13 +1404,13 @@
         <v>67</v>
       </c>
       <c r="AB2" s="18" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="AC2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="AD2" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE2" s="18" t="s">
         <v>49</v>
@@ -1431,7 +1431,7 @@
         <v>54</v>
       </c>
       <c r="AK2" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AL2" s="18" t="s">
         <v>53</v>
@@ -1440,19 +1440,19 @@
         <v>61</v>
       </c>
       <c r="AN2" s="52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AO2" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP2" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="AP2" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="AQ2" s="68" t="s">
-        <v>99</v>
+      <c r="AQ2" s="61" t="s">
+        <v>98</v>
       </c>
       <c r="AR2" s="54" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AS2" s="3"/>
       <c r="AT2" s="3"/>
@@ -1494,16 +1494,16 @@
     </row>
     <row r="3" spans="1:81" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="38" t="s">
+      <c r="D3" s="23" t="s">
         <v>81</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>82</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
@@ -1511,7 +1511,7 @@
         <v>58</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I3" s="23" t="s">
         <v>1</v>
@@ -1567,7 +1567,7 @@
         <v>46</v>
       </c>
       <c r="AB3" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC3" s="26" t="s">
         <v>0</v>
@@ -1601,16 +1601,16 @@
       </c>
       <c r="AM3" s="42"/>
       <c r="AN3" s="36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO3" s="57" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP3" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AQ3" s="57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AR3" s="58"/>
       <c r="AS3" s="11"/>
@@ -1652,7 +1652,7 @@
         <v>55432</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" s="39">
         <v>456</v>
@@ -1742,7 +1742,7 @@
       <c r="AL4" s="31"/>
       <c r="AM4" s="43"/>
       <c r="AN4" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AO4" s="55"/>
       <c r="AP4" s="55"/>
@@ -1754,7 +1754,7 @@
         <v>55432</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" s="40">
         <v>789</v>
@@ -1836,16 +1836,16 @@
       <c r="AM5" s="44"/>
       <c r="AN5" s="53"/>
       <c r="AO5" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AP5" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AQ5" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AR5" s="60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:81" ht="15" x14ac:dyDescent="0.2">
@@ -1853,7 +1853,7 @@
         <v>55432</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" s="38">
         <v>123</v>

--- a/docs/public/help/help_linked_docs/accessioning_template_extended_with_metadata.xlsx
+++ b/docs/public/help/help_linked_docs/accessioning_template_extended_with_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drioux/CGAP/cgap-portal-2/docs/public/help/help_linked_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C030D73-2513-4840-9D25-E17CDE5E3617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC95226F-9EE8-8D42-BB28-0C3C176F9B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1620" windowWidth="28800" windowHeight="14860" xr2:uid="{FB0E66EA-1423-4875-8AFB-50DDC911B1EB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="103">
   <si>
     <t>dd/mm/yyyy</t>
   </si>
@@ -331,6 +331,9 @@
   </si>
   <si>
     <t>Test Requested*</t>
+  </si>
+  <si>
+    <t>Tags</t>
   </si>
 </sst>
 </file>
@@ -899,7 +902,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1187,7 +1190,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1195,10 +1198,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23985C4D-01B8-468F-8F7A-3E2DDE3ABF1C}">
-  <dimension ref="A1:CC6"/>
+  <dimension ref="A1:CD6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AN7" sqref="AN7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1218,21 +1221,21 @@
     <col min="35" max="36" width="14.5" style="5" customWidth="1"/>
     <col min="37" max="37" width="15.5" style="5" customWidth="1"/>
     <col min="38" max="38" width="14.33203125" style="5" customWidth="1"/>
-    <col min="39" max="39" width="14.33203125" style="6" customWidth="1"/>
-    <col min="40" max="40" width="42.5" style="5" customWidth="1"/>
-    <col min="41" max="41" width="21.1640625" style="8" customWidth="1"/>
-    <col min="42" max="42" width="19.6640625" style="8" customWidth="1"/>
-    <col min="43" max="43" width="19.6640625" style="5" customWidth="1"/>
-    <col min="44" max="44" width="16" style="46" customWidth="1"/>
-    <col min="45" max="77" width="16" style="8" customWidth="1"/>
-    <col min="78" max="78" width="14.5" style="5" customWidth="1"/>
-    <col min="79" max="79" width="15.5" style="5" customWidth="1"/>
-    <col min="80" max="80" width="14.33203125" style="5" customWidth="1"/>
-    <col min="81" max="81" width="16.5" style="5" customWidth="1"/>
-    <col min="82" max="16384" width="9.1640625" style="9"/>
+    <col min="39" max="40" width="14.33203125" style="6" customWidth="1"/>
+    <col min="41" max="41" width="42.5" style="5" customWidth="1"/>
+    <col min="42" max="42" width="21.1640625" style="8" customWidth="1"/>
+    <col min="43" max="43" width="19.6640625" style="8" customWidth="1"/>
+    <col min="44" max="44" width="19.6640625" style="5" customWidth="1"/>
+    <col min="45" max="45" width="16" style="46" customWidth="1"/>
+    <col min="46" max="78" width="16" style="8" customWidth="1"/>
+    <col min="79" max="79" width="14.5" style="5" customWidth="1"/>
+    <col min="80" max="80" width="15.5" style="5" customWidth="1"/>
+    <col min="81" max="81" width="14.33203125" style="5" customWidth="1"/>
+    <col min="82" max="82" width="16.5" style="5" customWidth="1"/>
+    <col min="83" max="16384" width="9.1640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:82" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="66" t="s">
         <v>9</v>
       </c>
@@ -1282,8 +1285,8 @@
       <c r="AO1" s="63"/>
       <c r="AP1" s="63"/>
       <c r="AQ1" s="63"/>
-      <c r="AR1" s="64"/>
-      <c r="AS1" s="20"/>
+      <c r="AR1" s="63"/>
+      <c r="AS1" s="64"/>
       <c r="AT1" s="20"/>
       <c r="AU1" s="20"/>
       <c r="AV1" s="20"/>
@@ -1316,12 +1319,13 @@
       <c r="BW1" s="20"/>
       <c r="BX1" s="20"/>
       <c r="BY1" s="20"/>
-      <c r="BZ1" s="21"/>
+      <c r="BZ1" s="20"/>
       <c r="CA1" s="21"/>
       <c r="CB1" s="21"/>
       <c r="CC1" s="21"/>
+      <c r="CD1" s="21"/>
     </row>
-    <row r="2" spans="1:81" s="10" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:82" s="10" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>65</v>
       </c>
@@ -1439,22 +1443,24 @@
       <c r="AM2" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="AN2" s="52" t="s">
+      <c r="AN2" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO2" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="AO2" s="51" t="s">
+      <c r="AP2" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="AP2" s="51" t="s">
+      <c r="AQ2" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="AQ2" s="61" t="s">
+      <c r="AR2" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="AR2" s="54" t="s">
+      <c r="AS2" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="AS2" s="3"/>
       <c r="AT2" s="3"/>
       <c r="AU2" s="3"/>
       <c r="AV2" s="3"/>
@@ -1487,12 +1493,13 @@
       <c r="BW2" s="3"/>
       <c r="BX2" s="3"/>
       <c r="BY2" s="3"/>
-      <c r="BZ2" s="2"/>
+      <c r="BZ2" s="3"/>
       <c r="CA2" s="2"/>
       <c r="CB2" s="2"/>
       <c r="CC2" s="2"/>
+      <c r="CD2" s="2"/>
     </row>
-    <row r="3" spans="1:81" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:82" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>79</v>
       </c>
@@ -1600,20 +1607,22 @@
         <v>52</v>
       </c>
       <c r="AM3" s="42"/>
-      <c r="AN3" s="36" t="s">
+      <c r="AN3" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="AO3" s="57" t="s">
+      <c r="AO3" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="AP3" s="59" t="s">
+      <c r="AP3" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ3" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="AQ3" s="57" t="s">
+      <c r="AR3" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="AR3" s="58"/>
-      <c r="AS3" s="11"/>
+      <c r="AS3" s="58"/>
       <c r="AT3" s="11"/>
       <c r="AU3" s="11"/>
       <c r="AV3" s="11"/>
@@ -1646,8 +1655,9 @@
       <c r="BW3" s="11"/>
       <c r="BX3" s="11"/>
       <c r="BY3" s="11"/>
+      <c r="BZ3" s="11"/>
     </row>
-    <row r="4" spans="1:81" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:82" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="27">
         <v>55432</v>
       </c>
@@ -1741,15 +1751,16 @@
       <c r="AK4" s="31"/>
       <c r="AL4" s="31"/>
       <c r="AM4" s="43"/>
-      <c r="AN4" s="31" t="s">
+      <c r="AN4" s="43"/>
+      <c r="AO4" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="AO4" s="55"/>
       <c r="AP4" s="55"/>
-      <c r="AQ4" s="53"/>
-      <c r="AR4" s="56"/>
+      <c r="AQ4" s="55"/>
+      <c r="AR4" s="53"/>
+      <c r="AS4" s="56"/>
     </row>
-    <row r="5" spans="1:81" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:82" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>55432</v>
       </c>
@@ -1834,21 +1845,22 @@
         <v>36</v>
       </c>
       <c r="AM5" s="44"/>
-      <c r="AN5" s="53"/>
-      <c r="AO5" s="1" t="s">
+      <c r="AN5" s="44"/>
+      <c r="AO5" s="53"/>
+      <c r="AP5" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AP5" s="8" t="s">
+      <c r="AQ5" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="AQ5" s="5" t="s">
+      <c r="AR5" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="AR5" s="60" t="s">
+      <c r="AS5" s="60" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:81" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:82" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="23">
         <v>55432</v>
       </c>
@@ -1940,14 +1952,15 @@
       <c r="AK6" s="36"/>
       <c r="AL6" s="36"/>
       <c r="AM6" s="45"/>
-      <c r="AN6" s="53"/>
+      <c r="AN6" s="45"/>
+      <c r="AO6" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="T1:X1"/>
     <mergeCell ref="K1:S1"/>
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="Y1:AR1"/>
+    <mergeCell ref="Y1:AS1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
